--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga10</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H2">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I2">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J2">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.51054910432969</v>
+        <v>0.6605333333333333</v>
       </c>
       <c r="N2">
-        <v>0.51054910432969</v>
+        <v>1.9816</v>
       </c>
       <c r="O2">
-        <v>0.1508348865611424</v>
+        <v>0.1637209603602522</v>
       </c>
       <c r="P2">
-        <v>0.1508348865611424</v>
+        <v>0.1961884434749868</v>
       </c>
       <c r="Q2">
-        <v>0.2173169378039499</v>
+        <v>0.04695070933333333</v>
       </c>
       <c r="R2">
-        <v>0.2173169378039499</v>
+        <v>0.422556384</v>
       </c>
       <c r="S2">
-        <v>0.134485424312473</v>
+        <v>0.01574682011544506</v>
       </c>
       <c r="T2">
-        <v>0.134485424312473</v>
+        <v>0.01896468543161199</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H3">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I3">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J3">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.805768917009992</v>
+        <v>0.943352</v>
       </c>
       <c r="N3">
-        <v>0.805768917009992</v>
+        <v>2.830056</v>
       </c>
       <c r="O3">
-        <v>0.238053621406831</v>
+        <v>0.2338208953337171</v>
       </c>
       <c r="P3">
-        <v>0.238053621406831</v>
+        <v>0.2801898877609241</v>
       </c>
       <c r="Q3">
-        <v>0.3429782407553496</v>
+        <v>0.06705346016000001</v>
       </c>
       <c r="R3">
-        <v>0.3429782407553496</v>
+        <v>0.60348114144</v>
       </c>
       <c r="S3">
-        <v>0.2122502493548865</v>
+        <v>0.02248909101162494</v>
       </c>
       <c r="T3">
-        <v>0.2122502493548865</v>
+        <v>0.02708474050961148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H4">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I4">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J4">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.100408536525344</v>
+        <v>0.2167396666666667</v>
       </c>
       <c r="N4">
-        <v>0.100408536525344</v>
+        <v>0.650219</v>
       </c>
       <c r="O4">
-        <v>0.02966435566752173</v>
+        <v>0.05372147715204018</v>
       </c>
       <c r="P4">
-        <v>0.02966435566752173</v>
+        <v>0.06437497654817442</v>
       </c>
       <c r="Q4">
-        <v>0.04273923017789318</v>
+        <v>0.01540585550666667</v>
       </c>
       <c r="R4">
-        <v>0.04273923017789318</v>
+        <v>0.13865269956</v>
       </c>
       <c r="S4">
-        <v>0.02644894394033719</v>
+        <v>0.005166977002747563</v>
       </c>
       <c r="T4">
-        <v>0.02644894394033719</v>
+        <v>0.006222849614784677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -723,111 +723,111 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H5">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I5">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J5">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.96809452676339</v>
+        <v>0.2108543333333333</v>
       </c>
       <c r="N5">
-        <v>1.96809452676339</v>
+        <v>0.632563</v>
       </c>
       <c r="O5">
-        <v>0.581447136364505</v>
+        <v>0.05226272802198335</v>
       </c>
       <c r="P5">
-        <v>0.581447136364505</v>
+        <v>0.06262694306109612</v>
       </c>
       <c r="Q5">
-        <v>0.8377260330844573</v>
+        <v>0.01498752601333333</v>
       </c>
       <c r="R5">
-        <v>0.8377260330844573</v>
+        <v>0.13488773412</v>
       </c>
       <c r="S5">
-        <v>0.5184222737327764</v>
+        <v>0.005026673280523957</v>
       </c>
       <c r="T5">
-        <v>0.5184222737327764</v>
+        <v>0.006053874803530871</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.04335008402994</v>
+        <v>0.07108</v>
       </c>
       <c r="H6">
-        <v>0.04335008402994</v>
+        <v>0.21324</v>
       </c>
       <c r="I6">
-        <v>0.09080448549669824</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J6">
-        <v>0.09080448549669824</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.51054910432969</v>
+        <v>2.0030275</v>
       </c>
       <c r="N6">
-        <v>0.51054910432969</v>
+        <v>4.006055</v>
       </c>
       <c r="O6">
-        <v>0.1508348865611424</v>
+        <v>0.496473939132007</v>
       </c>
       <c r="P6">
-        <v>0.1508348865611424</v>
+        <v>0.3966197491548185</v>
       </c>
       <c r="Q6">
-        <v>0.02213234657410267</v>
+        <v>0.1423751947</v>
       </c>
       <c r="R6">
-        <v>0.02213234657410267</v>
+        <v>0.8542511682</v>
       </c>
       <c r="S6">
-        <v>0.01369648426913738</v>
+        <v>0.04775128239118333</v>
       </c>
       <c r="T6">
-        <v>0.01369648426913738</v>
+        <v>0.03833950993981448</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H7">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I7">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J7">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.805768917009992</v>
+        <v>0.6605333333333333</v>
       </c>
       <c r="N7">
-        <v>0.805768917009992</v>
+        <v>1.9816</v>
       </c>
       <c r="O7">
-        <v>0.238053621406831</v>
+        <v>0.1637209603602522</v>
       </c>
       <c r="P7">
-        <v>0.238053621406831</v>
+        <v>0.1961884434749868</v>
       </c>
       <c r="Q7">
-        <v>0.0349301502610969</v>
+        <v>0.3946605200888889</v>
       </c>
       <c r="R7">
-        <v>0.0349301502610969</v>
+        <v>3.5519446808</v>
       </c>
       <c r="S7">
-        <v>0.02161633661247308</v>
+        <v>0.1323653743415447</v>
       </c>
       <c r="T7">
-        <v>0.02161633661247308</v>
+        <v>0.1594142606584295</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H8">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I8">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J8">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.100408536525344</v>
+        <v>0.943352</v>
       </c>
       <c r="N8">
-        <v>0.100408536525344</v>
+        <v>2.830056</v>
       </c>
       <c r="O8">
-        <v>0.02966435566752173</v>
+        <v>0.2338208953337171</v>
       </c>
       <c r="P8">
-        <v>0.02966435566752173</v>
+        <v>0.2801898877609241</v>
       </c>
       <c r="Q8">
-        <v>0.004352718495696962</v>
+        <v>0.5636411853253332</v>
       </c>
       <c r="R8">
-        <v>0.004352718495696962</v>
+        <v>5.072770667927999</v>
       </c>
       <c r="S8">
-        <v>0.002693656553980375</v>
+        <v>0.1890398777995229</v>
       </c>
       <c r="T8">
-        <v>0.002693656553980375</v>
+        <v>0.2276702083477758</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H9">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I9">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J9">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.96809452676339</v>
+        <v>0.2167396666666667</v>
       </c>
       <c r="N9">
-        <v>1.96809452676339</v>
+        <v>0.650219</v>
       </c>
       <c r="O9">
-        <v>0.581447136364505</v>
+        <v>0.05372147715204018</v>
       </c>
       <c r="P9">
-        <v>0.581447136364505</v>
+        <v>0.06437497654817442</v>
       </c>
       <c r="Q9">
-        <v>0.08531706311405796</v>
+        <v>0.1294992777107778</v>
       </c>
       <c r="R9">
-        <v>0.08531706311405796</v>
+        <v>1.165493499397</v>
       </c>
       <c r="S9">
-        <v>0.05279800806110742</v>
+        <v>0.04343282263775982</v>
       </c>
       <c r="T9">
-        <v>0.05279800806110742</v>
+        <v>0.05230832718563958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.008396813085927299</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H10">
-        <v>0.008396813085927299</v>
+        <v>1.792463</v>
       </c>
       <c r="I10">
-        <v>0.01758862316282866</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J10">
-        <v>0.01758862316282866</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.51054910432969</v>
+        <v>0.2108543333333333</v>
       </c>
       <c r="N10">
-        <v>0.51054910432969</v>
+        <v>0.632563</v>
       </c>
       <c r="O10">
-        <v>0.1508348865611424</v>
+        <v>0.05226272802198335</v>
       </c>
       <c r="P10">
-        <v>0.1508348865611424</v>
+        <v>0.06262694306109612</v>
       </c>
       <c r="Q10">
-        <v>0.004286985400244003</v>
+        <v>0.1259828636298889</v>
       </c>
       <c r="R10">
-        <v>0.004286985400244003</v>
+        <v>1.133845772669</v>
       </c>
       <c r="S10">
-        <v>0.002652977979531942</v>
+        <v>0.04225345089302106</v>
       </c>
       <c r="T10">
-        <v>0.002652977979531942</v>
+        <v>0.05088795062821869</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.008396813085927299</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H11">
-        <v>0.008396813085927299</v>
+        <v>1.792463</v>
       </c>
       <c r="I11">
-        <v>0.01758862316282866</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J11">
-        <v>0.01758862316282866</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.805768917009992</v>
+        <v>2.0030275</v>
       </c>
       <c r="N11">
-        <v>0.805768917009992</v>
+        <v>4.006055</v>
       </c>
       <c r="O11">
-        <v>0.238053621406831</v>
+        <v>0.496473939132007</v>
       </c>
       <c r="P11">
-        <v>0.238053621406831</v>
+        <v>0.3966197491548185</v>
       </c>
       <c r="Q11">
-        <v>0.006765890986582969</v>
+        <v>1.196784227244167</v>
       </c>
       <c r="R11">
-        <v>0.006765890986582969</v>
+        <v>7.180705363464999</v>
       </c>
       <c r="S11">
-        <v>0.004187035439471433</v>
+        <v>0.401390015422752</v>
       </c>
       <c r="T11">
-        <v>0.004187035439471433</v>
+        <v>0.3222760880006081</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.008396813085927299</v>
+        <v>0.05933733333333333</v>
       </c>
       <c r="H12">
-        <v>0.008396813085927299</v>
+        <v>0.178012</v>
       </c>
       <c r="I12">
-        <v>0.01758862316282866</v>
+        <v>0.08029142921964473</v>
       </c>
       <c r="J12">
-        <v>0.01758862316282866</v>
+        <v>0.08069615232230591</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.100408536525344</v>
+        <v>0.6605333333333333</v>
       </c>
       <c r="N12">
-        <v>0.100408536525344</v>
+        <v>1.9816</v>
       </c>
       <c r="O12">
-        <v>0.02966435566752173</v>
+        <v>0.1637209603602522</v>
       </c>
       <c r="P12">
-        <v>0.02966435566752173</v>
+        <v>0.1961884434749868</v>
       </c>
       <c r="Q12">
-        <v>0.0008431117134348177</v>
+        <v>0.03919428657777778</v>
       </c>
       <c r="R12">
-        <v>0.0008431117134348177</v>
+        <v>0.3527485792</v>
       </c>
       <c r="S12">
-        <v>0.0005217551732041604</v>
+        <v>0.01314538990053745</v>
       </c>
       <c r="T12">
-        <v>0.0005217551732041604</v>
+        <v>0.01583165251853364</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.178012</v>
+      </c>
+      <c r="I13">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J13">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.943352</v>
+      </c>
+      <c r="N13">
+        <v>2.830056</v>
+      </c>
+      <c r="O13">
+        <v>0.2338208953337171</v>
+      </c>
+      <c r="P13">
+        <v>0.2801898877609241</v>
+      </c>
+      <c r="Q13">
+        <v>0.05597599207466666</v>
+      </c>
+      <c r="R13">
+        <v>0.5037839286719999</v>
+      </c>
+      <c r="S13">
+        <v>0.01877381386776111</v>
+      </c>
+      <c r="T13">
+        <v>0.02261024586192533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.178012</v>
+      </c>
+      <c r="I14">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J14">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2167396666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.650219</v>
+      </c>
+      <c r="O14">
+        <v>0.05372147715204018</v>
+      </c>
+      <c r="P14">
+        <v>0.06437497654817442</v>
+      </c>
+      <c r="Q14">
+        <v>0.01286075384755555</v>
+      </c>
+      <c r="R14">
+        <v>0.115746784628</v>
+      </c>
+      <c r="S14">
+        <v>0.004313374180327796</v>
+      </c>
+      <c r="T14">
+        <v>0.005194812913276354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.178012</v>
+      </c>
+      <c r="I15">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J15">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2108543333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.632563</v>
+      </c>
+      <c r="O15">
+        <v>0.05226272802198335</v>
+      </c>
+      <c r="P15">
+        <v>0.06262694306109612</v>
+      </c>
+      <c r="Q15">
+        <v>0.01251153386177778</v>
+      </c>
+      <c r="R15">
+        <v>0.112603804756</v>
+      </c>
+      <c r="S15">
+        <v>0.00419624912780262</v>
+      </c>
+      <c r="T15">
+        <v>0.005053753336738591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.178012</v>
+      </c>
+      <c r="I16">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J16">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.0030275</v>
+      </c>
+      <c r="N16">
+        <v>4.006055</v>
+      </c>
+      <c r="O16">
+        <v>0.496473939132007</v>
+      </c>
+      <c r="P16">
+        <v>0.3966197491548185</v>
+      </c>
+      <c r="Q16">
+        <v>0.1188543104433333</v>
+      </c>
+      <c r="R16">
+        <v>0.71312586266</v>
+      </c>
+      <c r="S16">
+        <v>0.03986260214321575</v>
+      </c>
+      <c r="T16">
+        <v>0.03200568769183199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.0111195</v>
+      </c>
+      <c r="H17">
+        <v>0.022239</v>
+      </c>
+      <c r="I17">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J17">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6605333333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.9816</v>
+      </c>
+      <c r="O17">
+        <v>0.1637209603602522</v>
+      </c>
+      <c r="P17">
+        <v>0.1961884434749868</v>
+      </c>
+      <c r="Q17">
+        <v>0.0073448004</v>
+      </c>
+      <c r="R17">
+        <v>0.0440688024</v>
+      </c>
+      <c r="S17">
+        <v>0.002463376002724976</v>
+      </c>
+      <c r="T17">
+        <v>0.001977844866411644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.0111195</v>
+      </c>
+      <c r="H18">
+        <v>0.022239</v>
+      </c>
+      <c r="I18">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J18">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.943352</v>
+      </c>
+      <c r="N18">
+        <v>2.830056</v>
+      </c>
+      <c r="O18">
+        <v>0.2338208953337171</v>
+      </c>
+      <c r="P18">
+        <v>0.2801898877609241</v>
+      </c>
+      <c r="Q18">
+        <v>0.010489602564</v>
+      </c>
+      <c r="R18">
+        <v>0.06293761538399999</v>
+      </c>
+      <c r="S18">
+        <v>0.003518112654808152</v>
+      </c>
+      <c r="T18">
+        <v>0.002824693041611562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.0111195</v>
+      </c>
+      <c r="H19">
+        <v>0.022239</v>
+      </c>
+      <c r="I19">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J19">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2167396666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.650219</v>
+      </c>
+      <c r="O19">
+        <v>0.05372147715204018</v>
+      </c>
+      <c r="P19">
+        <v>0.06437497654817442</v>
+      </c>
+      <c r="Q19">
+        <v>0.0024100367235</v>
+      </c>
+      <c r="R19">
+        <v>0.014460220341</v>
+      </c>
+      <c r="S19">
+        <v>0.0008083033312050017</v>
+      </c>
+      <c r="T19">
+        <v>0.0006489868344738154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.008396813085927299</v>
-      </c>
-      <c r="H13">
-        <v>0.008396813085927299</v>
-      </c>
-      <c r="I13">
-        <v>0.01758862316282866</v>
-      </c>
-      <c r="J13">
-        <v>0.01758862316282866</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.96809452676339</v>
-      </c>
-      <c r="N13">
-        <v>1.96809452676339</v>
-      </c>
-      <c r="O13">
-        <v>0.581447136364505</v>
-      </c>
-      <c r="P13">
-        <v>0.581447136364505</v>
-      </c>
-      <c r="Q13">
-        <v>0.01652572187666873</v>
-      </c>
-      <c r="R13">
-        <v>0.01652572187666873</v>
-      </c>
-      <c r="S13">
-        <v>0.01022685457062113</v>
-      </c>
-      <c r="T13">
-        <v>0.01022685457062113</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.0111195</v>
+      </c>
+      <c r="H20">
+        <v>0.022239</v>
+      </c>
+      <c r="I20">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J20">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.2108543333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.632563</v>
+      </c>
+      <c r="O20">
+        <v>0.05226272802198335</v>
+      </c>
+      <c r="P20">
+        <v>0.06262694306109612</v>
+      </c>
+      <c r="Q20">
+        <v>0.0023445947595</v>
+      </c>
+      <c r="R20">
+        <v>0.014067568557</v>
+      </c>
+      <c r="S20">
+        <v>0.0007863547206357081</v>
+      </c>
+      <c r="T20">
+        <v>0.0006313642926079676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.0111195</v>
+      </c>
+      <c r="H21">
+        <v>0.022239</v>
+      </c>
+      <c r="I21">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J21">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.0030275</v>
+      </c>
+      <c r="N21">
+        <v>4.006055</v>
+      </c>
+      <c r="O21">
+        <v>0.496473939132007</v>
+      </c>
+      <c r="P21">
+        <v>0.3966197491548185</v>
+      </c>
+      <c r="Q21">
+        <v>0.02227266428625</v>
+      </c>
+      <c r="R21">
+        <v>0.08909065714499999</v>
+      </c>
+      <c r="S21">
+        <v>0.007470039174855978</v>
+      </c>
+      <c r="T21">
+        <v>0.003998463522563937</v>
       </c>
     </row>
   </sheetData>
